--- a/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,03</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 12,27</t>
+          <t>-28,5; 22,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 22,55</t>
+          <t>-24,62; 27,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 15,07</t>
+          <t>-24,93; 29,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 10,05</t>
+          <t>-17,07; 22,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 8,56</t>
+          <t>-23,1; 13,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 11,57</t>
+          <t>-20,01; 18,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 15,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,17; 16,31</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-16,12; 16,83</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,86%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,12%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,65; 36,36</t>
+          <t>-47,51; 62,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 71,26</t>
+          <t>-40,41; 74,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 83,42</t>
+          <t>-41,49; 78,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 56,34</t>
+          <t>-51,87; 139,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 32,1</t>
+          <t>-65,01; 86,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 39,87</t>
+          <t>-57,93; 117,96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,29; 53,48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-37,57; 57,97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,16; 58,48</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 20,96</t>
+          <t>-25,74; 35,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 16,7</t>
+          <t>-35,51; 28,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 19,17</t>
+          <t>-39,05; 28,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 19,52</t>
+          <t>-17,46; 20,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 14,49</t>
+          <t>-23,92; 12,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 13,21</t>
+          <t>-15,07; 24,64</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 22,79</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 16,91</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-21,85; 19,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>-14,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 53,96</t>
+          <t>-43,1; 115,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 42,59</t>
+          <t>-56,95; 94,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 54,81</t>
+          <t>-66,47; 86,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 56,6</t>
+          <t>-36,49; 75,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 36,45</t>
+          <t>-52,25; 45,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 33,6</t>
+          <t>-34,43; 95,02</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,47; 70,08</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-41,64; 52,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-44,05; 53,94</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 19,73</t>
+          <t>-20,08; 17,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 24,88</t>
+          <t>-20,19; 15,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 7,3</t>
+          <t>-21,33; 16,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 16,6</t>
+          <t>-15,44; 11,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 8,4</t>
+          <t>-7,8; 19,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 16,69</t>
+          <t>-7,0; 21,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,2; 10,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 14,23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 14,41</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>-3,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 40,2</t>
+          <t>-29,07; 32,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 51,15</t>
+          <t>-29,02; 30,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 18,41</t>
+          <t>-30,89; 29,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 41,41</t>
+          <t>-33,4; 36,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 17,5</t>
+          <t>-17,19; 62,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 34,82</t>
+          <t>-16,33; 67,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-22,53; 23,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-13,8; 34,51</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-15,82; 34,2</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,94</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 18,03</t>
+          <t>-9,75; 20,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 19,6</t>
+          <t>-8,18; 21,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 11,48</t>
+          <t>-15,61; 14,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 9,7</t>
+          <t>-9,01; 18,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 10,85</t>
+          <t>-14,43; 14,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 10,65</t>
+          <t>-10,48; 17,16</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 15,93</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 13,41</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 11,16</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 32,59</t>
+          <t>-14,74; 42,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 34,88</t>
+          <t>-12,68; 45,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 28,27</t>
+          <t>-24,93; 29,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 23,32</t>
+          <t>-16,11; 44,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 22,2</t>
+          <t>-25,32; 33,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 21,85</t>
+          <t>-19,23; 42,19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 33,16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 28,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-16,73; 23,22</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 10,88</t>
+          <t>-21,84; 17,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 11,42</t>
+          <t>-19,0; 20,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 11,45</t>
+          <t>-18,17; 20,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 12,82</t>
+          <t>-23,22; 15,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 6,69</t>
+          <t>-13,83; 24,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 8,33</t>
+          <t>-15,9; 23,03</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-16,3; 12,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 16,54</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-14,0; 15,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 18,39</t>
+          <t>-28,06; 30,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 18,17</t>
+          <t>-24,77; 35,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 21,88</t>
+          <t>-23,19; 36,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 25,61</t>
+          <t>-36,8; 34,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 11,17</t>
+          <t>-21,34; 51,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 14,0</t>
+          <t>-24,63; 50,68</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-24,22; 23,01</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; 30,65</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 26,97</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>-6,02</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-6,41</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 9,49</t>
+          <t>-15,87; 16,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 12,3</t>
+          <t>-9,97; 19,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 15,92</t>
+          <t>-24,08; 10,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 6,73</t>
+          <t>-20,22; 16,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 9,36</t>
+          <t>-27,37; 13,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 5,09</t>
+          <t>-27,48; 12,98</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-12,95; 11,9</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-13,81; 11,42</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-20,54; 8,74</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-20,68%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>-7,37%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>-7,9%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 12,37</t>
+          <t>-17,48; 21,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 15,81</t>
+          <t>-10,7; 25,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 26,96</t>
+          <t>-26,55; 13,24</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-60,92; 10,47</t>
+          <t>-23,84; 24,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 12,92</t>
+          <t>-32,75; 19,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 7,03</t>
+          <t>-33,25; 19,11</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-15,08; 16,22</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-16,0; 15,27</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-23,84; 12,14</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,79</t>
+          <t>-9,48; 9,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 7,6</t>
+          <t>-9,07; 10,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,7</t>
+          <t>-14,53; 6,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 4,31</t>
+          <t>-6,25; 7,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,49</t>
+          <t>-7,57; 6,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,41</t>
+          <t>-3,18; 11,36</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 6,33</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 6,3</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 6,62</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 10,07</t>
+          <t>-14,68; 17,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 13,64</t>
+          <t>-13,93; 19,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 10,47</t>
+          <t>-23,02; 11,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 9,64</t>
+          <t>-12,47; 16,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,66</t>
+          <t>-15,61; 16,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 8,56</t>
+          <t>-6,48; 26,74</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 12,58</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-10,9; 12,44</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 13,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
